--- a/Weapon-It gun variables.xlsx
+++ b/Weapon-It gun variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adiel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adiel\Documents\GitHub\Weapon-It\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6E07E-7666-4A06-A765-3A5B53AE12DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB3430-46BD-4126-BC5D-DB2F0B0747CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334696E8-C336-48FC-8091-519CD3C16836}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Gun Variables</t>
   </si>
@@ -180,13 +180,49 @@
   <si>
     <t>Level 3
  Health</t>
+  </si>
+  <si>
+    <t>Enemys</t>
+  </si>
+  <si>
+    <t>Drone_Regular</t>
+  </si>
+  <si>
+    <t>Drone_Side Moving</t>
+  </si>
+  <si>
+    <t>Drone_Exploding</t>
+  </si>
+  <si>
+    <t>Vechile_Regular</t>
+  </si>
+  <si>
+    <t>Vechile_Side Moving</t>
+  </si>
+  <si>
+    <t>Vechile_Exploding</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Fire Rate</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +257,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -308,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,11 +407,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,15 +733,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C6FD5B-EE6F-46E6-8B3A-512846BADBB1}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="13.44140625" customWidth="1"/>
@@ -824,15 +874,15 @@
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <f>LOG(3,J4)+(B4)</f>
+        <f t="shared" ref="E4:E9" si="0">LOG(3,J4)+(B4)</f>
         <v>7.0256851026654763</v>
       </c>
       <c r="F4" s="3">
-        <f>LOG(5,J4)+(B4)</f>
+        <f t="shared" ref="F4:F9" si="1">LOG(5,J4)+(B4)</f>
         <v>9.8274691195894057</v>
       </c>
       <c r="G4" s="3">
-        <f>LOG(10,J4)+(B4)</f>
+        <f t="shared" ref="G4:G9" si="2">LOG(10,J4)+(B4)</f>
         <v>13.62925313651334</v>
       </c>
       <c r="H4" s="7">
@@ -845,35 +895,35 @@
         <v>1.2</v>
       </c>
       <c r="K4" s="3">
-        <f>LOG(5,I4)+(C4)</f>
+        <f t="shared" ref="K4:K9" si="3">LOG(5,I4)+(C4)</f>
         <v>2.9847106379326624</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L9" si="0" xml:space="preserve"> K4 *E4</f>
+        <f t="shared" ref="L4:L9" si="4" xml:space="preserve"> K4 *E4</f>
         <v>20.969637064690676</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M9" si="1" xml:space="preserve"> K4 *F4</f>
+        <f t="shared" ref="M4:M9" si="5" xml:space="preserve"> K4 *F4</f>
         <v>29.332151625193237</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N9" si="2" xml:space="preserve"> K4 *G4</f>
+        <f t="shared" ref="N4:N9" si="6" xml:space="preserve"> K4 *G4</f>
         <v>40.679376823628473</v>
       </c>
       <c r="O4" s="14">
-        <f>LOG(5,H4)+(D4)</f>
+        <f t="shared" ref="O4:O9" si="7">LOG(5,H4)+(D4)</f>
         <v>80.912371879004766</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4:P9" si="3">O4* 0.3 + L4*0.7</f>
+        <f t="shared" ref="P4:P9" si="8">O4* 0.3 + L4*0.7</f>
         <v>38.952457508984899</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q9" si="4">O4* 0.3 + M4*0.7</f>
+        <f t="shared" ref="Q4:Q9" si="9">O4* 0.3 + M4*0.7</f>
         <v>44.806217701336692</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="R4:R9" si="5">O4* 0.3 + N4*0.7</f>
+        <f t="shared" ref="R4:R9" si="10">O4* 0.3 + N4*0.7</f>
         <v>52.749275340241354</v>
       </c>
     </row>
@@ -891,15 +941,15 @@
         <v>100</v>
       </c>
       <c r="E5" s="3">
-        <f>LOG(3,J5)+(B5)</f>
+        <f t="shared" si="0"/>
         <v>9.1873549010110569</v>
       </c>
       <c r="F5" s="3">
-        <f>LOG(5,J5)+(B5)</f>
+        <f t="shared" si="1"/>
         <v>11.134364051829635</v>
       </c>
       <c r="G5" s="3">
-        <f>LOG(10,J5)+(B5)</f>
+        <f t="shared" si="2"/>
         <v>13.776290847640777</v>
       </c>
       <c r="H5" s="7">
@@ -912,35 +962,35 @@
         <v>1.3</v>
       </c>
       <c r="K5" s="3">
-        <f>LOG(5,I5)+(C5)</f>
+        <f t="shared" si="3"/>
         <v>4.4649735207179271</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.021296358452439</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>49.71464066145289</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>61.510773848424797</v>
       </c>
       <c r="O5" s="14">
-        <f>LOG(5,H5)+(D5)</f>
+        <f t="shared" si="7"/>
         <v>118.67580572045291</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>64.317649167052579</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>70.402990179152894</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>78.66028341003323</v>
       </c>
     </row>
@@ -958,15 +1008,15 @@
         <v>120</v>
       </c>
       <c r="E6" s="3">
-        <f>LOG(3,J6)+(B6)</f>
+        <f t="shared" si="0"/>
         <v>23.526704607247602</v>
       </c>
       <c r="F6" s="3">
-        <f>LOG(5,J6)+(B6)</f>
+        <f t="shared" si="1"/>
         <v>28.886317030755073</v>
       </c>
       <c r="G6" s="3">
-        <f>LOG(10,J6)+(B6)</f>
+        <f t="shared" si="2"/>
         <v>36.158857928096793</v>
       </c>
       <c r="H6" s="7">
@@ -979,35 +1029,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K6" s="3">
-        <f>LOG(5,I6)+(C6)</f>
+        <f t="shared" si="3"/>
         <v>2.0609640474436812</v>
       </c>
       <c r="L6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>48.487692350364924</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59.533660863446315</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.522106186431415</v>
       </c>
       <c r="O6" s="14">
-        <f>LOG(5,H6)+(D6)</f>
+        <f t="shared" si="7"/>
         <v>143.78761545993609</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>77.077669283236276</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>84.809847242393246</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>95.301758968482815</v>
       </c>
     </row>
@@ -1025,15 +1075,15 @@
         <v>70</v>
       </c>
       <c r="E7" s="3">
-        <f>LOG(3,J7)+(B7)</f>
+        <f t="shared" si="0"/>
         <v>21.025685102665477</v>
       </c>
       <c r="F7" s="3">
-        <f>LOG(5,J7)+(B7)</f>
+        <f t="shared" si="1"/>
         <v>23.827469119589406</v>
       </c>
       <c r="G7" s="3">
-        <f>LOG(10,J7)+(B7)</f>
+        <f t="shared" si="2"/>
         <v>27.629253136513341</v>
       </c>
       <c r="H7" s="7">
@@ -1046,35 +1096,35 @@
         <v>1.2</v>
       </c>
       <c r="K7" s="3">
-        <f>LOG(5,I7)+(C7)</f>
+        <f t="shared" si="3"/>
         <v>3.7564707973660298</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>78.982372082776834</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89.507191922878462</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>103.78848256034615</v>
       </c>
       <c r="O7" s="14">
-        <f>LOG(5,H7)+(D7)</f>
+        <f t="shared" si="7"/>
         <v>97.620869589829624</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>84.573921334892674</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>91.941295222963817</v>
       </c>
       <c r="R7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>101.93819866919119</v>
       </c>
     </row>
@@ -1092,15 +1142,15 @@
         <v>90</v>
       </c>
       <c r="E8" s="3">
-        <f>LOG(3,J8)+(B8)</f>
+        <f t="shared" si="0"/>
         <v>27.187354901011055</v>
       </c>
       <c r="F8" s="3">
-        <f>LOG(5,J8)+(B8)</f>
+        <f t="shared" si="1"/>
         <v>29.134364051829635</v>
       </c>
       <c r="G8" s="3">
-        <f>LOG(10,J8)+(B8)</f>
+        <f t="shared" si="2"/>
         <v>31.776290847640777</v>
       </c>
       <c r="H8" s="7">
@@ -1113,35 +1163,35 @@
         <v>1.3</v>
       </c>
       <c r="K8" s="3">
-        <f>LOG(5,I8)+(C8)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>135.93677450505527</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>145.67182025914818</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>158.88145423820387</v>
       </c>
       <c r="O8" s="14">
-        <f>LOG(5,H8)+(D8)</f>
+        <f t="shared" si="7"/>
         <v>113.78761545993609</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>129.2920267915195</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>136.10655881938456</v>
       </c>
       <c r="R8" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>145.35330260472352</v>
       </c>
     </row>
@@ -1159,15 +1209,15 @@
         <v>150</v>
       </c>
       <c r="E9" s="3">
-        <f>LOG(3,J9)+(B9)</f>
+        <f t="shared" si="0"/>
         <v>46.025685102665477</v>
       </c>
       <c r="F9" s="3">
-        <f>LOG(5,J9)+(B9)</f>
+        <f t="shared" si="1"/>
         <v>48.827469119589409</v>
       </c>
       <c r="G9" s="3">
-        <f>LOG(10,J9)+(B9)</f>
+        <f t="shared" si="2"/>
         <v>52.629253136513341</v>
       </c>
       <c r="H9" s="7">
@@ -1180,35 +1230,35 @@
         <v>1.2</v>
       </c>
       <c r="K9" s="3">
-        <f>LOG(5,I9)+(C9)</f>
+        <f t="shared" si="3"/>
         <v>2.9649735207179271</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>136.4649376023047</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>144.77215302325487</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>156.04434196492298</v>
       </c>
       <c r="O9" s="14">
-        <f>LOG(5,H9)+(D9)</f>
+        <f t="shared" si="7"/>
         <v>166.88631703075507</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>145.59135143083981</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>151.40640222550491</v>
       </c>
       <c r="R9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>159.29693448467259</v>
       </c>
     </row>
@@ -1260,35 +1310,35 @@
         <v>27</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:C18" si="6">ROUNDUP(K13*POWER(L13,0)-K13,0)</f>
+        <f t="shared" ref="C13:C18" si="11">ROUNDUP(K13*POWER(L13,0)-K13,0)</f>
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13:D18" si="7">ROUNDUP(K13*POWER(L13,1)-K13,0)</f>
+        <f t="shared" ref="D13:D18" si="12">ROUNDUP(K13*POWER(L13,1)-K13,0)</f>
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:E18" si="8">ROUNDUP(K13*POWER(L13,2)-K13,0)</f>
+        <f t="shared" ref="E13:E18" si="13">ROUNDUP(K13*POWER(L13,2)-K13,0)</f>
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F18" si="9">ROUNDUP(K13*POWER(L13,3)-K13,0)</f>
+        <f t="shared" ref="F13:F18" si="14">ROUNDUP(K13*POWER(L13,3)-K13,0)</f>
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:G18" si="10">ROUNDUP(K13*POWER(L13,4)-K13,0)</f>
+        <f t="shared" ref="G13:G18" si="15">ROUNDUP(K13*POWER(L13,4)-K13,0)</f>
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ref="H13:H18" si="11">ROUNDUP(K13*POWER(L13,5)-K13,0)</f>
+        <f t="shared" ref="H13:H18" si="16">ROUNDUP(K13*POWER(L13,5)-K13,0)</f>
         <v>6</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I18" si="12">ROUNDUP(K13*POWER(L13,7)-K13,0)</f>
+        <f t="shared" ref="I13:I18" si="17">ROUNDUP(K13*POWER(L13,7)-K13,0)</f>
         <v>15</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:J18" si="13">ROUNDUP(K13*POWER(L13,10)-K13,0)</f>
+        <f t="shared" ref="J13:J18" si="18">ROUNDUP(K13*POWER(L13,10)-K13,0)</f>
         <v>51</v>
       </c>
       <c r="K13" s="5">
@@ -1307,35 +1357,35 @@
         <v>150</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>131</v>
       </c>
       <c r="K14" s="5">
@@ -1357,35 +1407,35 @@
         <v>390</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>81</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>402</v>
       </c>
       <c r="K15" s="5">
@@ -1404,35 +1454,35 @@
         <v>1210</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>241</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1425</v>
       </c>
       <c r="K16" s="5">
@@ -1451,35 +1501,35 @@
         <v>4280</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>155</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>635</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5115</v>
       </c>
       <c r="K17" s="5">
@@ -1498,35 +1548,35 @@
         <v>15350</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>157</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>354</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1740</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>18585</v>
       </c>
       <c r="K18" s="5">
@@ -1537,15 +1587,15 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -1633,35 +1683,35 @@
         <v>27</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30" si="14">ROUNDUP(K30*POWER(L30,0)-K30,0)</f>
+        <f t="shared" ref="C30" si="19">ROUNDUP(K30*POWER(L30,0)-K30,0)</f>
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30" si="15">ROUNDUP(K30*POWER(L30,1)-K30,0)</f>
+        <f t="shared" ref="D30" si="20">ROUNDUP(K30*POWER(L30,1)-K30,0)</f>
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ref="E30" si="16">ROUNDUP(K30*POWER(L30,2)-K30,0)</f>
+        <f t="shared" ref="E30" si="21">ROUNDUP(K30*POWER(L30,2)-K30,0)</f>
         <v>2</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ref="F30" si="17">ROUNDUP(K30*POWER(L30,3)-K30,0)</f>
+        <f t="shared" ref="F30" si="22">ROUNDUP(K30*POWER(L30,3)-K30,0)</f>
         <v>3</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ref="G30" si="18">ROUNDUP(K30*POWER(L30,4)-K30,0)</f>
+        <f t="shared" ref="G30" si="23">ROUNDUP(K30*POWER(L30,4)-K30,0)</f>
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ref="H30" si="19">ROUNDUP(K30*POWER(L30,5)-K30,0)</f>
+        <f t="shared" ref="H30" si="24">ROUNDUP(K30*POWER(L30,5)-K30,0)</f>
         <v>7</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" ref="I30" si="20">ROUNDUP(K30*POWER(L30,7)-K30,0)</f>
+        <f t="shared" ref="I30" si="25">ROUNDUP(K30*POWER(L30,7)-K30,0)</f>
         <v>17</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30" si="21">ROUNDUP(K30*POWER(L30,10)-K30,0)</f>
+        <f t="shared" ref="J30" si="26">ROUNDUP(K30*POWER(L30,10)-K30,0)</f>
         <v>57</v>
       </c>
       <c r="K30" s="5">
@@ -1671,12 +1721,185 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>60</v>
+      </c>
+      <c r="E36" s="23">
+        <f>C36*B36</f>
+        <v>1.7</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23">
+        <v>10</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="23">
+        <f>C37*B37</f>
+        <v>15</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23">
+        <v>10</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D38" s="3">
+        <v>120</v>
+      </c>
+      <c r="E38" s="23">
+        <f>C38*B38</f>
+        <v>10.8</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23">
+        <v>10</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>70</v>
+      </c>
+      <c r="E39" s="23">
+        <f>C39*B39</f>
+        <v>30</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23">
+        <v>10</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>90</v>
+      </c>
+      <c r="E40" s="23">
+        <f>C40*B40</f>
+        <v>92</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23">
+        <v>10</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>150</v>
+      </c>
+      <c r="E41" s="23">
+        <f>C41*B41</f>
+        <v>60</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23">
+        <v>10</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
